--- a/【西安-袁聪】-组员进度表.xlsx
+++ b/【西安-袁聪】-组员进度表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -82,6 +82,18 @@
   </si>
   <si>
     <t>准备答辩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本样式完成，差ajax部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ajax部分运用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重温了html、css</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -151,7 +163,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -162,6 +174,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -465,7 +480,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -476,7 +491,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -516,10 +531,18 @@
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1">
       <c r="A3" s="1" t="s">

--- a/【西安-袁聪】-组员进度表.xlsx
+++ b/【西安-袁聪】-组员进度表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -94,6 +94,18 @@
   </si>
   <si>
     <t>重温了html、css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成首页底部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>细致，效率很重要</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,7 +492,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -491,7 +503,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -551,10 +563,18 @@
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.83680555555555547</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1">
       <c r="A4" s="1" t="s">

--- a/【西安-袁聪】-组员进度表.xlsx
+++ b/【西安-袁聪】-组员进度表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -106,6 +106,18 @@
   </si>
   <si>
     <t>细致，效率很重要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册页面的优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jQuery，js，ajax运用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对jQuery运用熟练增加了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,7 +504,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -503,7 +515,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -583,10 +595,18 @@
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1">
       <c r="A5" s="1" t="s">

--- a/【西安-袁聪】-组员进度表.xlsx
+++ b/【西安-袁聪】-组员进度表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -118,6 +118,18 @@
   </si>
   <si>
     <t>对jQuery运用熟练增加了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将注册页面和登陆页面合并解决bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ajax后台数据的交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明白了ajax的作用，获取后台数据并保存传入后台</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,7 +516,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -515,17 +527,17 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="23.75" customWidth="1"/>
     <col min="2" max="2" width="22.625" customWidth="1"/>
-    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="3" max="3" width="36.375" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="17.875" customWidth="1"/>
-    <col min="6" max="6" width="23.75" customWidth="1"/>
+    <col min="5" max="5" width="23.25" customWidth="1"/>
+    <col min="6" max="6" width="43" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27.95" customHeight="1">
@@ -615,10 +627,18 @@
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.72361111111111109</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1">
       <c r="A6" s="1" t="s">
